--- a/source/_static/sample1-sheet.xlsx
+++ b/source/_static/sample1-sheet.xlsx
@@ -32,7 +32,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Date of Birth</t>
+    <t>Date_of_Birth</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
